--- a/lab2dsp_G7_Aguilera_Huidobro/LabC/scripts/datos_tabla_III.xlsx
+++ b/lab2dsp_G7_Aguilera_Huidobro/LabC/scripts/datos_tabla_III.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuid\Documents\GitHub\LabDSP-Repositorio\lab2dsp_G7_Aguilera_Huidobro\LabC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuid\Documents\GitHub\LabDSP-Repositorio\lab2dsp_G7_Aguilera_Huidobro\LabC\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B01E3344-BA8A-418E-87BB-045FE53F081E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98499517-05E6-4FE0-8A6D-CBEE8C58121B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CD2D492F-A6BC-4A2C-9292-D7FAE7F821A0}"/>
+    <workbookView xWindow="11115" yWindow="2235" windowWidth="9345" windowHeight="7875" xr2:uid="{CD2D492F-A6BC-4A2C-9292-D7FAE7F821A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,36 +534,36 @@
         <v>20</v>
       </c>
       <c r="B3" s="3">
-        <v>0.04</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="C3" s="3">
-        <v>0.01</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D3" s="3">
-        <v>0.112</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="E3" s="3">
-        <v>0.11899999999999999</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="F3" s="3">
         <f>B3+C3+D3+E3</f>
-        <v>0.28100000000000003</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="G3" s="3">
-        <v>3.9E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="H3" s="3">
-        <v>1.0999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="I3" s="3">
-        <v>0.10199999999999999</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="J3" s="3">
-        <v>0.12</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="K3" s="3">
         <f>G3+H3+I3+J3</f>
-        <v>0.27200000000000002</v>
+        <v>0.56099999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -571,36 +571,36 @@
         <v>200</v>
       </c>
       <c r="B4" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="C4" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D4" s="3">
-        <v>0.107</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="E4" s="3">
-        <v>0.127</v>
+        <v>0.3</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ref="F4:F6" si="0">B4+C4+D4+E4</f>
-        <v>0.29299999999999998</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="G4" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H4" s="3">
-        <v>1.0999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I4" s="3">
-        <v>0.11899999999999999</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="J4" s="3">
-        <v>0.122</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K6" si="1">G4+H4+I4+J4</f>
-        <v>0.28999999999999998</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -608,36 +608,36 @@
         <v>2000</v>
       </c>
       <c r="B5" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C5" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.11899999999999999</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="E5" s="3">
-        <v>0.13</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>0.33499999999999996</v>
+        <v>0.70100000000000007</v>
       </c>
       <c r="G5" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H5" s="3">
-        <v>1.0999999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="I5" s="3">
-        <v>0.11799999999999999</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="J5" s="3">
-        <v>0.13300000000000001</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -645,36 +645,36 @@
         <v>20000</v>
       </c>
       <c r="B6" s="3">
-        <v>4.9000000000000002E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C6" s="3">
-        <v>0.33600000000000002</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="D6" s="3">
-        <v>0.11700000000000001</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="E6" s="3">
-        <v>0.19900000000000001</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.70100000000000007</v>
+        <v>1.391</v>
       </c>
       <c r="G6" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H6" s="3">
-        <v>1.0999999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="I6" s="3">
-        <v>0.11</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="J6" s="3">
-        <v>0.126</v>
+        <v>0.247</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="1"/>
-        <v>0.28500000000000003</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
